--- a/mytry/use.xlsx
+++ b/mytry/use.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\波波的文件\大学\大三\软件工程\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C0F8D-2732-42EF-91DA-BF405B86A3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,39 +74,374 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -122,9 +464,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -133,17 +717,61 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -428,24 +1056,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +1108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>45438</v>
       </c>
@@ -488,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="D2">
         <v>7.36</v>
@@ -500,7 +1128,7 @@
         <v>164</v>
       </c>
       <c r="G2">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="H2">
         <v>3.01</v>
@@ -509,13 +1137,13 @@
         <v>0.08</v>
       </c>
       <c r="J2">
-        <v>7.3999999999999996E-2</v>
+        <v>0.074</v>
       </c>
       <c r="K2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>45439</v>
       </c>
@@ -529,7 +1157,7 @@
         <v>7.35</v>
       </c>
       <c r="E3">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F3">
         <v>217</v>
@@ -544,13 +1172,13 @@
         <v>0.17</v>
       </c>
       <c r="J3">
-        <v>7.0999999999999994E-2</v>
+        <v>0.071</v>
       </c>
       <c r="K3">
         <v>1.03</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45440</v>
       </c>
@@ -564,7 +1192,7 @@
         <v>7.35</v>
       </c>
       <c r="E4">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F4">
         <v>217</v>
@@ -579,13 +1207,13 @@
         <v>0.17</v>
       </c>
       <c r="J4">
-        <v>7.0999999999999994E-2</v>
+        <v>0.071</v>
       </c>
       <c r="K4">
         <v>1.03</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>45441</v>
       </c>
@@ -593,19 +1221,19 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>16.899999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D5">
         <v>7.31</v>
       </c>
       <c r="E5">
-        <v>8.5399999999999991</v>
+        <v>8.54</v>
       </c>
       <c r="F5">
         <v>228</v>
       </c>
       <c r="G5">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="H5">
         <v>3.91</v>
@@ -614,13 +1242,13 @@
         <v>0.19</v>
       </c>
       <c r="J5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
       <c r="K5">
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>45442</v>
       </c>
@@ -634,7 +1262,7 @@
         <v>7.27</v>
       </c>
       <c r="E6">
-        <v>8.1199999999999992</v>
+        <v>8.12</v>
       </c>
       <c r="F6">
         <v>250</v>
@@ -649,13 +1277,13 @@
         <v>0.26</v>
       </c>
       <c r="J6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.085</v>
       </c>
       <c r="K6">
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>45443</v>
       </c>
@@ -681,16 +1309,16 @@
         <v>4.16</v>
       </c>
       <c r="I7">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J7">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="K7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>45444</v>
       </c>
@@ -719,13 +1347,13 @@
         <v>0.23</v>
       </c>
       <c r="J8">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="K8">
         <v>0.72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>45445</v>
       </c>
@@ -739,7 +1367,7 @@
         <v>7.26</v>
       </c>
       <c r="E9">
-        <v>8.5299999999999994</v>
+        <v>8.53</v>
       </c>
       <c r="F9">
         <v>211</v>
@@ -754,13 +1382,13 @@
         <v>0.18</v>
       </c>
       <c r="J9">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="K9">
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>45446</v>
       </c>
@@ -768,13 +1396,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="D10">
         <v>7.26</v>
       </c>
       <c r="E10">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="F10">
         <v>196</v>
@@ -789,13 +1417,13 @@
         <v>0.18</v>
       </c>
       <c r="J10">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="K10">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>45447</v>
       </c>
@@ -809,7 +1437,7 @@
         <v>7.28</v>
       </c>
       <c r="E11">
-        <v>9.5299999999999994</v>
+        <v>9.53</v>
       </c>
       <c r="F11">
         <v>180</v>
@@ -821,16 +1449,16 @@
         <v>3.61</v>
       </c>
       <c r="I11">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J11">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="K11">
         <v>0.68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>45448</v>
       </c>
@@ -856,16 +1484,16 @@
         <v>3.53</v>
       </c>
       <c r="I12">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J12">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="K12">
         <v>0.72</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>45449</v>
       </c>
@@ -879,7 +1507,7 @@
         <v>7.25</v>
       </c>
       <c r="E13">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="F13">
         <v>172</v>
@@ -891,16 +1519,16 @@
         <v>3.79</v>
       </c>
       <c r="I13">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J13">
-        <v>9.5000000000000001E-2</v>
+        <v>0.095</v>
       </c>
       <c r="K13">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>45450</v>
       </c>
@@ -935,7 +1563,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>45451</v>
       </c>
@@ -958,7 +1586,7 @@
         <v>45.5</v>
       </c>
       <c r="H15">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="I15">
         <v>0.13</v>
@@ -970,7 +1598,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>45452</v>
       </c>
@@ -999,13 +1627,13 @@
         <v>0.12</v>
       </c>
       <c r="J16">
-        <v>0.11600000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="K16">
         <v>0.67</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>45453</v>
       </c>
@@ -1034,13 +1662,13 @@
         <v>0.13</v>
       </c>
       <c r="J17">
-        <v>0.11700000000000001</v>
+        <v>0.117</v>
       </c>
       <c r="K17">
         <v>1.49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>45454</v>
       </c>
@@ -1063,10 +1691,10 @@
         <v>45.6</v>
       </c>
       <c r="H18">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="I18">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J18">
         <v>0.114</v>
@@ -1075,7 +1703,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>45455</v>
       </c>
@@ -1098,19 +1726,19 @@
         <v>42.2</v>
       </c>
       <c r="H19">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="I19">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J19">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
       <c r="K19">
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>45456</v>
       </c>
@@ -1124,7 +1752,7 @@
         <v>7.26</v>
       </c>
       <c r="E20">
-        <v>9.5299999999999994</v>
+        <v>9.53</v>
       </c>
       <c r="F20">
         <v>163</v>
@@ -1136,7 +1764,7 @@
         <v>4.38</v>
       </c>
       <c r="I20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J20">
         <v>0.11</v>
@@ -1145,7 +1773,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>45457</v>
       </c>
@@ -1159,7 +1787,7 @@
         <v>7.26</v>
       </c>
       <c r="E21">
-        <v>9.5299999999999994</v>
+        <v>9.53</v>
       </c>
       <c r="F21">
         <v>163</v>
@@ -1171,7 +1799,7 @@
         <v>4.38</v>
       </c>
       <c r="I21">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J21">
         <v>0.11</v>
@@ -1180,7 +1808,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>45458</v>
       </c>
@@ -1194,7 +1822,7 @@
         <v>7.28</v>
       </c>
       <c r="E22">
-        <v>9.7899999999999991</v>
+        <v>9.79</v>
       </c>
       <c r="F22">
         <v>173</v>
@@ -1203,7 +1831,7 @@
         <v>42.2</v>
       </c>
       <c r="H22">
-        <v>4.6900000000000004</v>
+        <v>4.69</v>
       </c>
       <c r="I22">
         <v>0.15</v>
@@ -1215,7 +1843,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>45459</v>
       </c>
@@ -1223,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="D23">
         <v>7.3</v>
@@ -1235,13 +1863,13 @@
         <v>171</v>
       </c>
       <c r="G23">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="H23">
         <v>4.88</v>
       </c>
       <c r="I23">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J23">
         <v>0.114</v>
@@ -1250,7 +1878,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>45460</v>
       </c>
@@ -1285,7 +1913,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>45461</v>
       </c>
@@ -1320,7 +1948,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>45462</v>
       </c>
@@ -1355,7 +1983,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>45463</v>
       </c>
@@ -1390,7 +2018,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>45464</v>
       </c>
@@ -1425,7 +2053,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>45465</v>
       </c>
@@ -1460,8 +2088,13 @@
         <v>1.93</v>
       </c>
     </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>45472</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mytry/use.xlsx
+++ b/mytry/use.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>监测时间</t>
   </si>
@@ -70,6 +70,9 @@
   <si>
     <t>Ⅳ</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +84,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +97,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -565,148 +561,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1061,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2088,9 +2084,12 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>45472</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
